--- a/Datasheets/MDO34.xlsx
+++ b/Datasheets/MDO34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cb3f6eeceb65200/Documents/Albstadt/5Semester/Extraktion_aus_Datenblättern_mit_KI/Projekt_Extraktion/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_11C9E8F28FAAC3E2ADEAFEE73220F989553076FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67CAB7B-E2E2-4763-90BA-22823492920C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_11C9E8F28FAAC3E2ADEAFEE73220F989553076FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9EC133-F914-4AF3-9802-AD3DD48F7197}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target_Values" sheetId="1" r:id="rId1"/>
@@ -430,12 +430,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,6 +494,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,201 +787,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="1" max="1" width="35" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>29.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>280000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>5.31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -990,33 +995,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="1" max="1" width="35" style="3" customWidth="1"/>
+    <col min="2" max="3" width="30" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="4" t="str">
         <f>Target_Values!A1</f>
         <v>Versuch</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="4" t="str">
         <f>Target_Values!B1</f>
         <v>Target Value</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="4" t="str">
         <f>Target_Values!A2</f>
         <v>Modell</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="4" t="str">
         <f>Target_Values!B2</f>
         <v>MDO34</v>
       </c>
@@ -1025,24 +1033,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="4" t="str">
         <f>Target_Values!A3</f>
         <v>Bandbreite</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>Target_Values!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="4" t="str">
         <f>Target_Values!A4</f>
         <v>Anzahl Kanäle</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f>Target_Values!B4</f>
         <v>4</v>
       </c>
@@ -1051,11 +1059,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="4" t="str">
         <f>Target_Values!A5</f>
         <v>Samplerate</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f>Target_Values!B5</f>
         <v>5</v>
       </c>
@@ -1064,11 +1072,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="4" t="str">
         <f>Target_Values!A6</f>
         <v>Speichertiefe</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>Target_Values!B6</f>
         <v>10</v>
       </c>
@@ -1076,26 +1084,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>Target_Values!A7</f>
         <v>Triggerarten</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="4" t="str">
         <f>Target_Values!B7</f>
         <v>Edge, Sequence (B-trigger), Pulse Width, Timeout, Runt, Logic, Setup and Hold, Rise/Fall Time, Video
 Optional: Parallel</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="4" t="str">
         <f>Target_Values!A8</f>
         <v>Vertikale Auflösung</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <f>Target_Values!B8</f>
         <v>8</v>
       </c>
@@ -1104,11 +1112,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="4" t="str">
         <f>Target_Values!A9</f>
         <v>Anzahl Digitalkanäle</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <f>Target_Values!B9</f>
         <v>0</v>
       </c>
@@ -1117,11 +1125,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="4" t="str">
         <f>Target_Values!A10</f>
         <v>Bildschirmgröße</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <f>Target_Values!B10</f>
         <v>29.5</v>
       </c>
@@ -1130,24 +1138,24 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="4" t="str">
         <f>Target_Values!A11</f>
         <v>Bildschirmtyp.pixel</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="4" t="str">
         <f>Target_Values!B11</f>
         <v>1920, 1080</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
+      <c r="A12" s="4" t="str">
         <f>Target_Values!A12</f>
         <v>Bildschirmtyp.screen_type</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="4" t="str">
         <f>Target_Values!B12</f>
         <v>HD Touchscreen</v>
       </c>
@@ -1156,50 +1164,50 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="4" t="str">
         <f>Target_Values!A13</f>
         <v>Schnittstellen.relevant_interfaces</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="4" t="str">
         <f>Target_Values!B13</f>
         <v>USB, LAN</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="4" t="str">
         <f>Target_Values!A14</f>
         <v>Schnittstellen.optionale_interfaces</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <f>Target_Values!B14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="4" t="str">
         <f>Target_Values!A15</f>
         <v>unterstützende serielle Busse</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="4" t="str">
         <f>Target_Values!B15</f>
         <v>Optional: I²C, SPI, RS-232/422/485/UART, USB 2.0, CAN, CAN FD, LIN, FlexRay, MIL-STD-1553, ARINC429, I²S, LJ, RJ, TDM</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
+      <c r="A16" s="4" t="str">
         <f>Target_Values!A16</f>
         <v>Signalerfassungsrate</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <f>Target_Values!B16</f>
         <v>280000</v>
       </c>
@@ -1208,22 +1216,22 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="4" t="str">
         <f>Target_Values!A17</f>
         <v>segmentierbarer Speicher</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f>Target_Values!B17</f>
         <v>0</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
+      <c r="A18" s="4" t="str">
         <f>Target_Values!A18</f>
         <v>Funktionsgenerator</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="4" t="str">
         <f>Target_Values!B18</f>
         <v>Optional</v>
       </c>
@@ -1232,11 +1240,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
+      <c r="A19" s="4" t="str">
         <f>Target_Values!A19</f>
         <v>DVM</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="4" t="str">
         <f>Target_Values!B19</f>
         <v>Yes</v>
       </c>
@@ -1245,11 +1253,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="4" t="str">
         <f>Target_Values!A20</f>
         <v>Counter</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="4" t="str">
         <f>Target_Values!B20</f>
         <v>Yes</v>
       </c>
@@ -1257,12 +1265,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
         <f>Target_Values!A21</f>
         <v>Besonderheiten</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="4" t="str">
         <f>Target_Values!B21</f>
         <v>Bandbreitenupgrade auf bis zu 1 GHz, 1 GHz Spectrum Analyzer</v>
       </c>
@@ -1271,24 +1279,24 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
+      <c r="A22" s="4" t="str">
         <f>Target_Values!A22</f>
         <v>Abmessungen (L x B x H) (mm)</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="4" t="str">
         <f>Target_Values!B22</f>
         <v>148.6, 370, 252</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
+      <c r="A23" s="4" t="str">
         <f>Target_Values!A23</f>
         <v>Gewicht (kg)</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <f>Target_Values!B23</f>
         <v>5.31</v>
       </c>
@@ -1297,11 +1305,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
+      <c r="A24" s="4" t="str">
         <f>Target_Values!A24</f>
         <v>Garantie (Jahre)</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <f>Target_Values!B24</f>
         <v>3</v>
       </c>
@@ -1310,11 +1318,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
+      <c r="A25" s="4" t="str">
         <f>Target_Values!A25</f>
         <v>Artikelnummer</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="4" t="str">
         <f>Target_Values!B25</f>
         <v>MDO34</v>
       </c>
@@ -1323,7 +1331,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
